--- a/biology/Zoologie/Aname_warialda/Aname_warialda.xlsx
+++ b/biology/Zoologie/Aname_warialda/Aname_warialda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname warialda est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname warialda est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud vers Warialda, Inverell, Tenterfield, Bundarra et Bingara et au Queensland dans le parc national de Girraween, vers Moombah, Texas Caves et Toowoomba[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud vers Warialda, Inverell, Tenterfield, Bundarra et Bingara et au Queensland dans le parc national de Girraween, vers Moombah, Texas Caves et Toowoomba.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 9,70 mm de long sur 7,90 mm et l'abdomen 9,72 mm de long sur 7,25 mm et la carapace de la femelle paratype mesure 10,48 mm de long sur 8,10 mm et l'abdomen 14,28 mm de long sur 9,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 9,70 mm de long sur 7,90 mm et l'abdomen 9,72 mm de long sur 7,25 mm et la carapace de la femelle paratype mesure 10,48 mm de long sur 8,10 mm et l'abdomen 14,28 mm de long sur 9,65 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Warialda.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1985 : A revision of the Aname pallida species-group in northern Australia. Australian Journal of Zoology, vol. 33, no 3, p. 377-409.</t>
         </is>
